--- a/ogrenci.xlsx
+++ b/ogrenci.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bekom\Desktop\SoruBankasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\Documents\GitHub\Exam-Creation-System-design-patterns-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C10E4-B56C-453A-B380-D257F2C64D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -27,105 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Dursun DURAK</t>
+    <t>Deneme 1</t>
   </si>
   <si>
-    <t>Hakan TOPAL</t>
+    <t>Deneme 2</t>
   </si>
   <si>
-    <t>Gizem USLU</t>
+    <t>Deneme 3</t>
   </si>
   <si>
-    <t>Ezgi SIR</t>
+    <t>Deneme 4</t>
   </si>
   <si>
-    <t>Adim SOYADIM</t>
-  </si>
-  <si>
-    <t>Naruto UZUMAKI</t>
-  </si>
-  <si>
-    <t>Faruk USTA</t>
-  </si>
-  <si>
-    <t>Rima ALTIPARMAK</t>
-  </si>
-  <si>
-    <t>Rugugül BABADOSTU</t>
-  </si>
-  <si>
-    <t>Hüner BERK</t>
-  </si>
-  <si>
-    <t>Buse Gizem BERKER</t>
-  </si>
-  <si>
-    <t>Senay BİLGEN</t>
-  </si>
-  <si>
-    <t>Kübra Tansu BİLGİT</t>
-  </si>
-  <si>
-    <t>İbrahim Hakkı BUGEY</t>
-  </si>
-  <si>
-    <t>Hayriye BÜYÜKGÜNGÖR</t>
-  </si>
-  <si>
-    <t>Abdullah Emirhan CANER</t>
-  </si>
-  <si>
-    <t>Mayıs CUMALI</t>
-  </si>
-  <si>
-    <t>Batuhan GÜNEŞ</t>
-  </si>
-  <si>
-    <t>Emre Okan DIŞKAYA</t>
-  </si>
-  <si>
-    <t>Büşra GÜNEŞ</t>
-  </si>
-  <si>
-    <t>Doğan AYDIN</t>
-  </si>
-  <si>
-    <t>Özde ACARKAN</t>
-  </si>
-  <si>
-    <t>Hacı Mehmet ADIGUZEL</t>
-  </si>
-  <si>
-    <t>Özgün BAHTİYAR</t>
-  </si>
-  <si>
-    <t>Halime BEYDAĞ</t>
-  </si>
-  <si>
-    <t>Remzi BİLGİÇ</t>
-  </si>
-  <si>
-    <t>Ogün BÖLGE</t>
-  </si>
-  <si>
-    <t>Elif Ege ÇAĞLAYAN</t>
-  </si>
-  <si>
-    <t>Muhammed Emin Berkay Erkan KOCAOĞLU</t>
-  </si>
-  <si>
-    <t>İsimsiz ADAM</t>
-  </si>
-  <si>
-    <t>İsimsiz KADIN</t>
+    <t>Deneme 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,11 +362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,253 +380,42 @@
         <v>111111111111</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>201513171001</v>
+        <v>222222222222</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>201513171002</v>
+        <v>333333333333</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>201513171006</v>
+        <v>444444444444</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>201513171010</v>
+        <v>555555555555</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>201513171012</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>201513171013</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>201513171013</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>201513171015</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>201513171022</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>201513171025</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>201513171026</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>201513171033</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>201513171034</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>201513171036</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>201513171040</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>201513171041</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>201513171043</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>201513171044</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>201513171054</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>201513171055</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>201513171058</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>201513171059</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>201513171068</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>201513171070</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>201513171088</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>201513171098</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>201513172070</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>201513178095</v>
-      </c>
-      <c r="B29" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>201513171111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>201513171112</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B29">
-    <sortCondition ref="A3"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
